--- a/isolate_metadata.xlsx
+++ b/isolate_metadata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203B2133-02CE-43D8-BBDE-7BBE1186E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pattyjk/Documents/GitHub/CarbonTemperatureInhibition/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB84ACD5-587D-1741-9433-BF3F0DE416D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="30440" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +568,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -953,20 +958,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" customWidth="1"/>
-    <col min="48" max="49" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="36" max="36" width="53.33203125" customWidth="1"/>
+    <col min="48" max="49" width="22.1640625" customWidth="1"/>
     <col min="51" max="51" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="3" customFormat="1">
+    <row r="2" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="3" customFormat="1">
+    <row r="3" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="6" customFormat="1">
+    <row r="5" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="6" customFormat="1">
+    <row r="6" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>130</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="9" customFormat="1">
+    <row r="8" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>141</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="9" customFormat="1">
+    <row r="9" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>159</v>
       </c>

--- a/isolate_metadata.xlsx
+++ b/isolate_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pattyjk/Documents/GitHub/CarbonTemperatureInhibition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB84ACD5-587D-1741-9433-BF3F0DE416D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80BD3E-427A-BD40-8C91-01A79F4FC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="30440" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,14 +958,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="30" max="30" width="24" customWidth="1"/>
     <col min="36" max="36" width="53.33203125" customWidth="1"/>
     <col min="48" max="49" width="22.1640625" customWidth="1"/>
     <col min="51" max="51" width="106" customWidth="1"/>
